--- a/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.32364779930967</v>
+        <v>92.06799740289007</v>
       </c>
       <c r="D2" t="n">
-        <v>2.682447615781586</v>
+        <v>2.754923543065626</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.99510409104056</v>
+        <v>91.18751433944441</v>
       </c>
       <c r="D3" t="n">
-        <v>2.79511083709583</v>
+        <v>2.664627213353874</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.38751980903702</v>
+        <v>89.81722579842278</v>
       </c>
       <c r="D4" t="n">
-        <v>2.751178922991746</v>
+        <v>2.427309090691911</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.12300173321654</v>
+        <v>89.03501357856437</v>
       </c>
       <c r="D5" t="n">
-        <v>2.902004814283941</v>
+        <v>3.182783424115336</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.74686727858835</v>
+        <v>87.92638067869704</v>
       </c>
       <c r="D6" t="n">
-        <v>2.497761232193584</v>
+        <v>2.751536521468898</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.92427059158774</v>
+        <v>86.60954049542794</v>
       </c>
       <c r="D7" t="n">
-        <v>2.636173759228522</v>
+        <v>2.565824471954914</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.94798821739771</v>
+        <v>85.22001140003312</v>
       </c>
       <c r="D8" t="n">
-        <v>3.146399159930053</v>
+        <v>2.637714143721042</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.65854601741195</v>
+        <v>84.48673151871728</v>
       </c>
       <c r="D9" t="n">
-        <v>2.762044203444346</v>
+        <v>2.413304704370073</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.97202001413456</v>
+        <v>83.84852843719062</v>
       </c>
       <c r="D10" t="n">
-        <v>2.41915156271967</v>
+        <v>2.730026286649456</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.0838455278526</v>
+        <v>82.99641293265489</v>
       </c>
       <c r="D11" t="n">
-        <v>2.53250266653151</v>
+        <v>2.792339858822697</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.93623281551973</v>
+        <v>81.20954107272647</v>
       </c>
       <c r="D12" t="n">
-        <v>2.338390813575068</v>
+        <v>2.700915536910504</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.44537164540006</v>
+        <v>80.91309322635787</v>
       </c>
       <c r="D13" t="n">
-        <v>2.810849047060231</v>
+        <v>2.448696138849909</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.50675800752904</v>
+        <v>79.16654407322767</v>
       </c>
       <c r="D14" t="n">
-        <v>2.682740843947998</v>
+        <v>2.378194849848547</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.83831761862048</v>
+        <v>78.18249229352698</v>
       </c>
       <c r="D15" t="n">
-        <v>2.453594418523506</v>
+        <v>2.309018771437956</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25186971589174</v>
+        <v>77.30732886783444</v>
       </c>
       <c r="D16" t="n">
-        <v>2.771251643357924</v>
+        <v>2.667620878906872</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.4191328577476</v>
+        <v>76.38512626942483</v>
       </c>
       <c r="D17" t="n">
-        <v>2.882820749800434</v>
+        <v>2.748309914917839</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.94780247580583</v>
+        <v>75.28995251703705</v>
       </c>
       <c r="D18" t="n">
-        <v>2.489456760985511</v>
+        <v>2.950199468917422</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.63097998166228</v>
+        <v>73.95907289562031</v>
       </c>
       <c r="D19" t="n">
-        <v>2.657420929841341</v>
+        <v>2.64117186218622</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.21949936412915</v>
+        <v>72.78817876768957</v>
       </c>
       <c r="D20" t="n">
-        <v>2.703271703298354</v>
+        <v>2.542488199602777</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.40212827303962</v>
+        <v>71.68872468485171</v>
       </c>
       <c r="D21" t="n">
-        <v>2.665861316178672</v>
+        <v>2.607859437213298</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.63786223276603</v>
+        <v>71.33552443949525</v>
       </c>
       <c r="D22" t="n">
-        <v>2.424612036237372</v>
+        <v>2.52960186914233</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.6944401405383</v>
+        <v>70.22512970344337</v>
       </c>
       <c r="D23" t="n">
-        <v>2.961789650509965</v>
+        <v>2.511773811146569</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.0163924085591</v>
+        <v>68.87962120396872</v>
       </c>
       <c r="D24" t="n">
-        <v>2.916943713696308</v>
+        <v>2.588250522493186</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.81882191625203</v>
+        <v>67.97224538878437</v>
       </c>
       <c r="D25" t="n">
-        <v>2.592921118262311</v>
+        <v>2.787925237207586</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.96019344226399</v>
+        <v>66.84748248725262</v>
       </c>
       <c r="D26" t="n">
-        <v>2.725560243965906</v>
+        <v>2.413789934974311</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.1807787384829</v>
+        <v>65.69272179060462</v>
       </c>
       <c r="D27" t="n">
-        <v>2.602657121759935</v>
+        <v>2.147492643215958</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.31021202827311</v>
+        <v>64.48384317469012</v>
       </c>
       <c r="D28" t="n">
-        <v>2.802680726533628</v>
+        <v>2.524686489523892</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.81622087186334</v>
+        <v>63.97850185847321</v>
       </c>
       <c r="D29" t="n">
-        <v>2.767824298710604</v>
+        <v>2.822469542085161</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.03668416746626</v>
+        <v>62.62739547458403</v>
       </c>
       <c r="D30" t="n">
-        <v>2.755376705642472</v>
+        <v>2.433696796778286</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.6916251544121</v>
+        <v>61.86171829279626</v>
       </c>
       <c r="D31" t="n">
-        <v>2.779953256120407</v>
+        <v>2.801307865853101</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.67957325506573</v>
+        <v>60.88083025617504</v>
       </c>
       <c r="D32" t="n">
-        <v>2.935465258062712</v>
+        <v>2.658611207161668</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.41076344801542</v>
+        <v>58.95106070943456</v>
       </c>
       <c r="D33" t="n">
-        <v>2.803379933615846</v>
+        <v>2.40681526834102</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.86438704433268</v>
+        <v>58.90692021622717</v>
       </c>
       <c r="D34" t="n">
-        <v>2.69061938364019</v>
+        <v>2.687355063164473</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.19225117993489</v>
+        <v>57.5239407999477</v>
       </c>
       <c r="D35" t="n">
-        <v>2.463171314703494</v>
+        <v>2.374779730119777</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.33615220153589</v>
+        <v>56.38032568603518</v>
       </c>
       <c r="D36" t="n">
-        <v>2.584317424092767</v>
+        <v>2.613726164708213</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.65110406321187</v>
+        <v>55.16408940754071</v>
       </c>
       <c r="D37" t="n">
-        <v>2.808033539808574</v>
+        <v>2.308960231048332</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.10720174809548</v>
+        <v>54.92228110083751</v>
       </c>
       <c r="D38" t="n">
-        <v>2.369487455409234</v>
+        <v>2.726316632108657</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.61558173361293</v>
+        <v>53.28701031786838</v>
       </c>
       <c r="D39" t="n">
-        <v>2.781516114506675</v>
+        <v>2.415632054231458</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.49868391123377</v>
+        <v>52.26350879338059</v>
       </c>
       <c r="D40" t="n">
-        <v>2.78134665677941</v>
+        <v>2.48536567741523</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.69590194978578</v>
+        <v>51.3351079293345</v>
       </c>
       <c r="D41" t="n">
-        <v>2.796192462477917</v>
+        <v>2.386906135843339</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.41538181109088</v>
+        <v>50.57383275534295</v>
       </c>
       <c r="D42" t="n">
-        <v>2.677381211203545</v>
+        <v>2.96099452865999</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.71365025408893</v>
+        <v>49.27956033326296</v>
       </c>
       <c r="D43" t="n">
-        <v>2.545228245192737</v>
+        <v>2.722019563930831</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.42121822196447</v>
+        <v>48.4849143017864</v>
       </c>
       <c r="D44" t="n">
-        <v>3.204798218063099</v>
+        <v>2.926488791116827</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.05442372249883</v>
+        <v>46.79715446223371</v>
       </c>
       <c r="D45" t="n">
-        <v>2.856892444893539</v>
+        <v>2.469321133710253</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.50322898571955</v>
+        <v>45.87666659172256</v>
       </c>
       <c r="D46" t="n">
-        <v>2.817998284239419</v>
+        <v>2.714265801119267</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.04147691656275</v>
+        <v>45.21571155956262</v>
       </c>
       <c r="D47" t="n">
-        <v>2.631272217346313</v>
+        <v>2.423017571342086</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.98846273261758</v>
+        <v>44.15527405932905</v>
       </c>
       <c r="D48" t="n">
-        <v>2.599048220062596</v>
+        <v>2.60489038560728</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.85215587636234</v>
+        <v>43.49384245575083</v>
       </c>
       <c r="D49" t="n">
-        <v>2.501925526016681</v>
+        <v>2.679452166627422</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.08435948237685</v>
+        <v>42.34343624590533</v>
       </c>
       <c r="D50" t="n">
-        <v>2.557729723779826</v>
+        <v>2.710590133382285</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.19390696775034</v>
+        <v>41.25478641533033</v>
       </c>
       <c r="D51" t="n">
-        <v>2.696882975965596</v>
+        <v>2.580754698984582</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.90336475826918</v>
+        <v>39.83364484140129</v>
       </c>
       <c r="D52" t="n">
-        <v>2.925536319992693</v>
+        <v>2.461783748989512</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.27150890744675</v>
+        <v>38.99803125229503</v>
       </c>
       <c r="D53" t="n">
-        <v>2.510671006346533</v>
+        <v>2.461101020221474</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.85772061200082</v>
+        <v>38.2208320192665</v>
       </c>
       <c r="D54" t="n">
-        <v>2.437878331005681</v>
+        <v>2.753910379506257</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.75449310863602</v>
+        <v>37.11794206797613</v>
       </c>
       <c r="D55" t="n">
-        <v>2.699886079254121</v>
+        <v>2.174554593500569</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.88135459881664</v>
+        <v>36.20373148661359</v>
       </c>
       <c r="D56" t="n">
-        <v>2.605162809202277</v>
+        <v>2.470299690349285</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.91308916256736</v>
+        <v>34.8496171991098</v>
       </c>
       <c r="D57" t="n">
-        <v>2.488071460767639</v>
+        <v>2.616215627674223</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.20180019153807</v>
+        <v>34.78277823731492</v>
       </c>
       <c r="D58" t="n">
-        <v>2.529572173520661</v>
+        <v>2.631916791132108</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.13917794624059</v>
+        <v>32.97795448656357</v>
       </c>
       <c r="D59" t="n">
-        <v>2.735211418523717</v>
+        <v>2.665691713834093</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.83828945066823</v>
+        <v>31.89292868618723</v>
       </c>
       <c r="D60" t="n">
-        <v>2.396939676276835</v>
+        <v>2.503315306428826</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.68762436301518</v>
+        <v>30.62243350218935</v>
       </c>
       <c r="D61" t="n">
-        <v>2.575466778889531</v>
+        <v>2.534863991723173</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.23001572330463</v>
+        <v>30.81324420300019</v>
       </c>
       <c r="D62" t="n">
-        <v>2.743615151060579</v>
+        <v>2.640120259536508</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.10967415743536</v>
+        <v>28.90041982832671</v>
       </c>
       <c r="D63" t="n">
-        <v>2.426629794540876</v>
+        <v>2.998329083819651</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.52839338033376</v>
+        <v>27.92082358716608</v>
       </c>
       <c r="D64" t="n">
-        <v>2.943421558256609</v>
+        <v>2.654492474907722</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.21136079909252</v>
+        <v>26.93777629726713</v>
       </c>
       <c r="D65" t="n">
-        <v>2.550393368897287</v>
+        <v>2.446341180641163</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.65170523130671</v>
+        <v>26.23867648863805</v>
       </c>
       <c r="D66" t="n">
-        <v>2.418248853760361</v>
+        <v>2.608494435643811</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.17491324765992</v>
+        <v>24.8995514772637</v>
       </c>
       <c r="D67" t="n">
-        <v>2.506583070673133</v>
+        <v>2.516778835692743</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.75470579136173</v>
+        <v>23.94063448122905</v>
       </c>
       <c r="D68" t="n">
-        <v>2.495088591565894</v>
+        <v>2.462891444336185</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.61523728228482</v>
+        <v>22.99170510747285</v>
       </c>
       <c r="D69" t="n">
-        <v>2.627005302088336</v>
+        <v>2.601031400092207</v>
       </c>
     </row>
   </sheetData>
